--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_10.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,142 +488,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.08, 11.7)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.900000', '0:00:17.860000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.28, 8.7)]</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:13.080000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:01:26.660000', '0:01:36.120000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,579 +646,530 @@
           <t>schubert-winterreise_168</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.72, 48.9)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:00:56.780000', '0:01:05.580000'), ('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.22, 69.76)]</t>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:42.620000', '0:00:45.660000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(110.32, 122.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.9, 47.16)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
